--- a/outputs/progess_summary.xlsx
+++ b/outputs/progess_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>acsr</t>
   </si>
@@ -43,6 +43,9 @@
     <t>ht</t>
   </si>
   <si>
+    <t>ht_conductor</t>
+  </si>
+  <si>
     <t>pole_ht_8m</t>
   </si>
   <si>
@@ -67,7 +70,7 @@
     <t>completed</t>
   </si>
   <si>
-    <t>doc</t>
+    <t>cert</t>
   </si>
   <si>
     <t>surveyed</t>
@@ -467,15 +470,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -540,10 +543,13 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>7.21</v>
@@ -573,45 +579,48 @@
         <v>3.75</v>
       </c>
       <c r="K2">
+        <v>11.8125</v>
+      </c>
+      <c r="L2">
         <v>35</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>14.47</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>11.2</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>748</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>3</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>29</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
       <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <v>50</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>54</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>12.8</v>
@@ -620,10 +629,10 @@
         <v>31.30000000000002</v>
       </c>
       <c r="D3">
-        <v>63.39000000000001</v>
+        <v>62.89000000000001</v>
       </c>
       <c r="E3">
-        <v>2557</v>
+        <v>2544</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -641,57 +650,60 @@
         <v>3.5</v>
       </c>
       <c r="K3">
+        <v>11.025</v>
+      </c>
+      <c r="L3">
         <v>72</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>19.25</v>
       </c>
-      <c r="M3">
-        <v>46.34000000000001</v>
-      </c>
       <c r="N3">
-        <v>1727</v>
+        <v>45.84000000000001</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1714</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>2</v>
       </c>
-      <c r="R3">
-        <v>129</v>
-      </c>
       <c r="S3">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="T3">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="U3">
+        <v>405</v>
+      </c>
+      <c r="V3">
         <v>412</v>
       </c>
-      <c r="V3">
-        <v>4</v>
+      <c r="W3">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>89.425</v>
       </c>
       <c r="C4">
-        <v>47.64599999999998</v>
+        <v>48.14599999999998</v>
       </c>
       <c r="D4">
-        <v>65.25399999999999</v>
+        <v>66.38399999999999</v>
       </c>
       <c r="E4">
-        <v>4482</v>
+        <v>4302</v>
       </c>
       <c r="F4">
         <v>206</v>
@@ -706,48 +718,51 @@
         <v>99</v>
       </c>
       <c r="J4">
-        <v>89.425</v>
+        <v>43.535</v>
       </c>
       <c r="K4">
+        <v>278.9640000000001</v>
+      </c>
+      <c r="L4">
         <v>1767</v>
       </c>
-      <c r="L4">
-        <v>47.64599999999998</v>
-      </c>
       <c r="M4">
-        <v>65.25399999999999</v>
+        <v>48.14599999999998</v>
       </c>
       <c r="N4">
-        <v>2715</v>
+        <v>66.38399999999999</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2756</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>4</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>99</v>
       </c>
-      <c r="R4">
-        <v>101</v>
-      </c>
       <c r="S4">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="T4">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="U4">
+        <v>173</v>
+      </c>
+      <c r="V4">
         <v>164</v>
       </c>
-      <c r="V4">
-        <v>40</v>
+      <c r="W4">
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>6.4</v>
@@ -777,45 +792,48 @@
         <v>7.59</v>
       </c>
       <c r="K5">
+        <v>23.9085</v>
+      </c>
+      <c r="L5">
         <v>209</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>5.280000000000001</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>6.74</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>344</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>9</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>5</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>12</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>3</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>41</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>57</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>8.050000000000001</v>
@@ -845,45 +863,48 @@
         <v>5.4</v>
       </c>
       <c r="K6">
+        <v>17.01</v>
+      </c>
+      <c r="L6">
         <v>192</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>9.24</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>6.24</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>699</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>6</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>23</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
       <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <v>82</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>63</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>10.426</v>
@@ -913,45 +934,48 @@
         <v>3.415</v>
       </c>
       <c r="K7">
+        <v>10.75725</v>
+      </c>
+      <c r="L7">
         <v>134</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>6.040999999999999</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>10.551</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>828</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>2</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>6</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>23</v>
       </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
       <c r="T7">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="U7">
+        <v>402</v>
+      </c>
+      <c r="V7">
         <v>413</v>
       </c>
-      <c r="V7">
-        <v>68</v>
+      <c r="W7">
+        <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:23">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>27</v>
@@ -981,45 +1005,48 @@
         <v>0.4</v>
       </c>
       <c r="K8">
+        <v>1.26</v>
+      </c>
+      <c r="L8">
         <v>6</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>23.55000000000001</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>22.95999999999999</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>948</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>2</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>27</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
       <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
         <v>130</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>135</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>50.343</v>
@@ -1046,63 +1073,66 @@
         <v>19</v>
       </c>
       <c r="J9">
-        <v>8.542</v>
+        <v>10.173</v>
       </c>
       <c r="K9">
-        <v>155</v>
+        <v>26.9073</v>
       </c>
       <c r="L9">
-        <v>13.741</v>
+        <v>156</v>
       </c>
       <c r="M9">
-        <v>19.149</v>
+        <v>20.731</v>
       </c>
       <c r="N9">
-        <v>810</v>
+        <v>25.64899999999999</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1151</v>
       </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>7</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>21</v>
       </c>
-      <c r="R9">
-        <v>42</v>
-      </c>
       <c r="S9">
+        <v>60</v>
+      </c>
+      <c r="T9">
         <v>19</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>78</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>137</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10">
-        <v>84.07000000000002</v>
+        <v>181.135</v>
       </c>
       <c r="C10">
-        <v>47.14999999999996</v>
+        <v>47.59999999999997</v>
       </c>
       <c r="D10">
-        <v>34.817</v>
+        <v>35.129</v>
       </c>
       <c r="E10">
-        <v>1813</v>
+        <v>1873</v>
       </c>
       <c r="F10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1111,66 +1141,69 @@
         <v>14</v>
       </c>
       <c r="I10">
+        <v>22</v>
+      </c>
+      <c r="J10">
+        <v>31.66999999999999</v>
+      </c>
+      <c r="K10">
+        <v>67.25250000000001</v>
+      </c>
+      <c r="L10">
+        <v>399</v>
+      </c>
+      <c r="M10">
+        <v>26.49</v>
+      </c>
+      <c r="N10">
+        <v>20.209</v>
+      </c>
+      <c r="O10">
+        <v>1096</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>20</v>
       </c>
-      <c r="J10">
-        <v>21.34999999999999</v>
-      </c>
-      <c r="K10">
-        <v>267</v>
-      </c>
-      <c r="L10">
-        <v>24.14</v>
-      </c>
-      <c r="M10">
-        <v>18.113</v>
-      </c>
-      <c r="N10">
-        <v>986</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>20</v>
-      </c>
-      <c r="Q10">
-        <v>31</v>
-      </c>
       <c r="R10">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="S10">
+        <v>77</v>
+      </c>
+      <c r="T10">
         <v>38</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>124</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>123</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11">
-        <v>295.724</v>
+        <v>392.789</v>
       </c>
       <c r="C11">
-        <v>228.1344999999999</v>
+        <v>229.0845</v>
       </c>
       <c r="D11">
-        <v>275.353</v>
+        <v>276.295</v>
       </c>
       <c r="E11">
-        <v>15431</v>
+        <v>15298</v>
       </c>
       <c r="F11">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1179,46 +1212,49 @@
         <v>53</v>
       </c>
       <c r="I11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J11">
-        <v>143.372</v>
+        <v>109.433</v>
       </c>
       <c r="K11">
-        <v>2837</v>
+        <v>448.8970500000001</v>
       </c>
       <c r="L11">
-        <v>163.358</v>
+        <v>2970</v>
       </c>
       <c r="M11">
-        <v>206.547</v>
+        <v>173.198</v>
       </c>
       <c r="N11">
-        <v>9805</v>
+        <v>215.773</v>
       </c>
       <c r="O11">
+        <v>10284</v>
+      </c>
+      <c r="P11">
         <v>1</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>48</v>
       </c>
-      <c r="Q11">
-        <v>170</v>
-      </c>
       <c r="R11">
-        <v>455</v>
+        <v>171</v>
       </c>
       <c r="S11">
-        <v>74</v>
+        <v>506</v>
       </c>
       <c r="T11">
-        <v>1382</v>
+        <v>92</v>
       </c>
       <c r="U11">
+        <v>1485</v>
+      </c>
+      <c r="V11">
         <v>1558</v>
       </c>
-      <c r="V11">
-        <v>225</v>
+      <c r="W11">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/progess_summary.xlsx
+++ b/outputs/progess_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>acsr</t>
   </si>
@@ -79,7 +79,10 @@
     <t>DPRHabs</t>
   </si>
   <si>
-    <t>additional</t>
+    <t>Non DPR</t>
+  </si>
+  <si>
+    <t>Non Surveyed</t>
   </si>
   <si>
     <t>district</t>
@@ -470,15 +473,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -546,64 +549,67 @@
       <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>7.21</v>
+        <v>14.46</v>
       </c>
       <c r="C2">
-        <v>15.28</v>
+        <v>23.47</v>
       </c>
       <c r="D2">
-        <v>12.23</v>
+        <v>19.68</v>
       </c>
       <c r="E2">
-        <v>824</v>
+        <v>1331</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>3.75</v>
+        <v>6.35</v>
       </c>
       <c r="K2">
         <v>11.8125</v>
       </c>
       <c r="L2">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="M2">
-        <v>14.47</v>
+        <v>22.11</v>
       </c>
       <c r="N2">
-        <v>11.2</v>
+        <v>18.405</v>
       </c>
       <c r="O2">
-        <v>748</v>
+        <v>1171</v>
       </c>
       <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
         <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
       </c>
       <c r="R2">
         <v>3</v>
       </c>
       <c r="S2">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -617,81 +623,87 @@
       <c r="W2">
         <v>0</v>
       </c>
+      <c r="X2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>12.8</v>
+        <v>26.6</v>
       </c>
       <c r="C3">
-        <v>31.30000000000002</v>
+        <v>639.3700000000002</v>
       </c>
       <c r="D3">
-        <v>62.89000000000001</v>
+        <v>89.37999999999992</v>
       </c>
       <c r="E3">
-        <v>2544</v>
+        <v>3373</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>3.5</v>
+        <v>4.720000000000001</v>
       </c>
       <c r="K3">
         <v>11.025</v>
       </c>
       <c r="L3">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="M3">
-        <v>19.25</v>
+        <v>31.97000000000001</v>
       </c>
       <c r="N3">
-        <v>45.84000000000001</v>
+        <v>71.73000000000002</v>
       </c>
       <c r="O3">
-        <v>1714</v>
+        <v>2601</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S3">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="U3">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="V3">
         <v>412</v>
       </c>
       <c r="W3">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>89.425</v>
@@ -718,22 +730,22 @@
         <v>99</v>
       </c>
       <c r="J4">
-        <v>43.535</v>
+        <v>43.474</v>
       </c>
       <c r="K4">
-        <v>278.9640000000001</v>
+        <v>275.5505000000001</v>
       </c>
       <c r="L4">
-        <v>1767</v>
+        <v>1753</v>
       </c>
       <c r="M4">
-        <v>48.14599999999998</v>
+        <v>48.00899999999999</v>
       </c>
       <c r="N4">
-        <v>66.38399999999999</v>
+        <v>66.14799999999998</v>
       </c>
       <c r="O4">
-        <v>2756</v>
+        <v>2751</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -748,7 +760,7 @@
         <v>127</v>
       </c>
       <c r="T4">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="U4">
         <v>173</v>
@@ -759,70 +771,73 @@
       <c r="W4">
         <v>41</v>
       </c>
+      <c r="X4">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>6.4</v>
+        <v>8.07</v>
       </c>
       <c r="C5">
-        <v>3.11</v>
+        <v>6.420000000000001</v>
       </c>
       <c r="D5">
-        <v>5.97</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="E5">
-        <v>379</v>
+        <v>710</v>
       </c>
       <c r="F5">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
         <v>6</v>
       </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
       <c r="J5">
-        <v>7.59</v>
+        <v>10.54</v>
       </c>
       <c r="K5">
         <v>23.9085</v>
       </c>
       <c r="L5">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="M5">
-        <v>5.280000000000001</v>
+        <v>9.16</v>
       </c>
       <c r="N5">
-        <v>6.74</v>
+        <v>9.69</v>
       </c>
       <c r="O5">
-        <v>344</v>
+        <v>435</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S5">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="V5">
         <v>57</v>
@@ -830,206 +845,215 @@
       <c r="W5">
         <v>3</v>
       </c>
+      <c r="X5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>8.050000000000001</v>
+        <v>10.7</v>
       </c>
       <c r="C6">
-        <v>9.85</v>
+        <v>12.51</v>
       </c>
       <c r="D6">
-        <v>7.319999999999999</v>
+        <v>15.655</v>
       </c>
       <c r="E6">
-        <v>892</v>
+        <v>1004</v>
       </c>
       <c r="F6">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>18</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>8.33</v>
+      </c>
+      <c r="K6">
+        <v>14.829</v>
+      </c>
+      <c r="L6">
+        <v>214</v>
+      </c>
+      <c r="M6">
+        <v>13.51</v>
+      </c>
+      <c r="N6">
+        <v>15.875</v>
+      </c>
+      <c r="O6">
+        <v>916</v>
+      </c>
+      <c r="P6">
         <v>1</v>
       </c>
-      <c r="H6">
-        <v>16</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>5.4</v>
-      </c>
-      <c r="K6">
-        <v>17.01</v>
-      </c>
-      <c r="L6">
-        <v>192</v>
-      </c>
-      <c r="M6">
-        <v>9.24</v>
-      </c>
-      <c r="N6">
-        <v>6.24</v>
-      </c>
-      <c r="O6">
-        <v>699</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
       <c r="Q6">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S6">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="V6">
         <v>63</v>
       </c>
       <c r="W6">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="X6">
+        <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
-        <v>10.426</v>
+        <v>11.324</v>
       </c>
       <c r="C7">
-        <v>12.943</v>
+        <v>43.62299999999998</v>
       </c>
       <c r="D7">
-        <v>23.968</v>
+        <v>82.642</v>
       </c>
       <c r="E7">
-        <v>1334</v>
+        <v>3320</v>
       </c>
       <c r="F7">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J7">
-        <v>3.415</v>
+        <v>4.824999999999999</v>
       </c>
       <c r="K7">
-        <v>10.75725</v>
+        <v>3.16575</v>
       </c>
       <c r="L7">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="M7">
-        <v>6.040999999999999</v>
+        <v>12.761</v>
       </c>
       <c r="N7">
-        <v>10.551</v>
+        <v>20.177</v>
       </c>
       <c r="O7">
-        <v>828</v>
+        <v>1933</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S7">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="V7">
         <v>413</v>
       </c>
       <c r="W7">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C8">
+        <v>71.92999999999996</v>
+      </c>
+      <c r="D8">
+        <v>51.19999999999999</v>
+      </c>
+      <c r="E8">
+        <v>3139</v>
+      </c>
+      <c r="F8">
+        <v>53</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>2.6</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>33</v>
+      </c>
+      <c r="M8">
+        <v>30.55000000000001</v>
+      </c>
+      <c r="N8">
+        <v>25.7</v>
+      </c>
+      <c r="O8">
+        <v>1312</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
         <v>37</v>
-      </c>
-      <c r="D8">
-        <v>26.15</v>
-      </c>
-      <c r="E8">
-        <v>1521</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>0.4</v>
-      </c>
-      <c r="K8">
-        <v>1.26</v>
-      </c>
-      <c r="L8">
-        <v>6</v>
-      </c>
-      <c r="M8">
-        <v>23.55000000000001</v>
-      </c>
-      <c r="N8">
-        <v>22.95999999999999</v>
-      </c>
-      <c r="O8">
-        <v>948</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8">
-        <v>27</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1043,10 +1067,13 @@
       <c r="W8">
         <v>0</v>
       </c>
+      <c r="X8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>50.343</v>
@@ -1114,67 +1141,70 @@
       <c r="W9">
         <v>13</v>
       </c>
+      <c r="X9">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
-        <v>181.135</v>
+        <v>178.575</v>
       </c>
       <c r="C10">
-        <v>47.59999999999997</v>
+        <v>45.60999999999996</v>
       </c>
       <c r="D10">
-        <v>35.129</v>
+        <v>33.67899999999999</v>
       </c>
       <c r="E10">
-        <v>1873</v>
+        <v>1778</v>
       </c>
       <c r="F10">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10">
-        <v>31.66999999999999</v>
+        <v>30.31</v>
       </c>
       <c r="K10">
-        <v>67.25250000000001</v>
+        <v>60.60600000000001</v>
       </c>
       <c r="L10">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="M10">
-        <v>26.49</v>
+        <v>24.9</v>
       </c>
       <c r="N10">
-        <v>20.209</v>
+        <v>18.959</v>
       </c>
       <c r="O10">
-        <v>1096</v>
+        <v>1029</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R10">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="S10">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="T10">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U10">
         <v>124</v>
@@ -1185,76 +1215,82 @@
       <c r="W10">
         <v>54</v>
       </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
-        <v>392.789</v>
+        <v>453.597</v>
       </c>
       <c r="C11">
-        <v>229.0845</v>
+        <v>914.9345000000001</v>
       </c>
       <c r="D11">
-        <v>276.295</v>
+        <v>403.2439999999999</v>
       </c>
       <c r="E11">
-        <v>15298</v>
+        <v>20586</v>
       </c>
       <c r="F11">
-        <v>462</v>
+        <v>627</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="I11">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="J11">
-        <v>109.433</v>
+        <v>121.322</v>
       </c>
       <c r="K11">
-        <v>448.8970500000001</v>
+        <v>427.8045500000001</v>
       </c>
       <c r="L11">
-        <v>2970</v>
+        <v>3011</v>
       </c>
       <c r="M11">
-        <v>173.198</v>
+        <v>213.701</v>
       </c>
       <c r="N11">
-        <v>215.773</v>
+        <v>272.333</v>
       </c>
       <c r="O11">
-        <v>10284</v>
+        <v>13299</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="R11">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="S11">
-        <v>506</v>
+        <v>633</v>
       </c>
       <c r="T11">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="U11">
-        <v>1485</v>
+        <v>1478</v>
       </c>
       <c r="V11">
         <v>1558</v>
       </c>
       <c r="W11">
-        <v>270</v>
+        <v>237</v>
+      </c>
+      <c r="X11">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/progess_summary.xlsx
+++ b/outputs/progess_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>acsr</t>
   </si>
@@ -73,16 +73,19 @@
     <t>cert</t>
   </si>
   <si>
-    <t>surveyed</t>
+    <t>approved</t>
   </si>
   <si>
     <t>DPRHabs</t>
   </si>
   <si>
+    <t>scope</t>
+  </si>
+  <si>
     <t>Non DPR</t>
   </si>
   <si>
-    <t>Non Surveyed</t>
+    <t>Non approved</t>
   </si>
   <si>
     <t>district</t>
@@ -473,15 +476,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -552,10 +555,13 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>14.46</v>
@@ -582,66 +588,69 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>6.35</v>
+        <v>5.97</v>
       </c>
       <c r="K2">
         <v>11.8125</v>
       </c>
       <c r="L2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M2">
-        <v>22.11</v>
+        <v>24.29000000000001</v>
       </c>
       <c r="N2">
-        <v>18.405</v>
+        <v>21.325</v>
       </c>
       <c r="O2">
-        <v>1171</v>
+        <v>1296</v>
       </c>
       <c r="P2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V2">
         <v>54</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="X2">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>26.6</v>
       </c>
       <c r="C3">
-        <v>639.3700000000002</v>
+        <v>638.0700000000003</v>
       </c>
       <c r="D3">
-        <v>89.37999999999992</v>
+        <v>87.92999999999992</v>
       </c>
       <c r="E3">
-        <v>3373</v>
+        <v>3313</v>
       </c>
       <c r="F3">
         <v>96</v>
@@ -653,40 +662,40 @@
         <v>3</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>4.720000000000001</v>
+        <v>11.57</v>
       </c>
       <c r="K3">
         <v>11.025</v>
       </c>
       <c r="L3">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="M3">
-        <v>31.97000000000001</v>
+        <v>38.85500000000001</v>
       </c>
       <c r="N3">
-        <v>71.73000000000002</v>
+        <v>94.70999999999999</v>
       </c>
       <c r="O3">
-        <v>2601</v>
+        <v>3335</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S3">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="T3">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="U3">
         <v>406</v>
@@ -695,30 +704,33 @@
         <v>412</v>
       </c>
       <c r="W3">
+        <v>410</v>
+      </c>
+      <c r="X3">
         <v>2</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>89.425</v>
+        <v>84.91499999999999</v>
       </c>
       <c r="C4">
-        <v>48.14599999999998</v>
+        <v>45.72599999999999</v>
       </c>
       <c r="D4">
-        <v>66.38399999999999</v>
+        <v>63.51399999999998</v>
       </c>
       <c r="E4">
-        <v>4302</v>
+        <v>4081</v>
       </c>
       <c r="F4">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -727,25 +739,25 @@
         <v>4</v>
       </c>
       <c r="I4">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J4">
-        <v>43.474</v>
+        <v>66.14999999999999</v>
       </c>
       <c r="K4">
-        <v>275.5505000000001</v>
+        <v>165.7645</v>
       </c>
       <c r="L4">
-        <v>1753</v>
+        <v>1332</v>
       </c>
       <c r="M4">
-        <v>48.00899999999999</v>
+        <v>42.67199999999998</v>
       </c>
       <c r="N4">
-        <v>66.14799999999998</v>
+        <v>70.184</v>
       </c>
       <c r="O4">
-        <v>2751</v>
+        <v>2684</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -757,7 +769,7 @@
         <v>99</v>
       </c>
       <c r="S4">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="T4">
         <v>69</v>
@@ -769,163 +781,172 @@
         <v>164</v>
       </c>
       <c r="W4">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="X4">
-        <v>8</v>
+        <v>37</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>8.07</v>
+        <v>10.09</v>
       </c>
       <c r="C5">
-        <v>6.420000000000001</v>
+        <v>9.57</v>
       </c>
       <c r="D5">
-        <v>8.369999999999999</v>
+        <v>14.04</v>
       </c>
       <c r="E5">
-        <v>710</v>
+        <v>806</v>
       </c>
       <c r="F5">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5">
-        <v>10.54</v>
+        <v>14.961</v>
       </c>
       <c r="K5">
-        <v>23.9085</v>
+        <v>19.384</v>
       </c>
       <c r="L5">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="M5">
-        <v>9.16</v>
+        <v>16.59</v>
       </c>
       <c r="N5">
-        <v>9.69</v>
+        <v>21.035</v>
       </c>
       <c r="O5">
-        <v>435</v>
+        <v>795</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="R5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S5">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="U5">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V5">
         <v>57</v>
       </c>
       <c r="W5">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="X5">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6">
-        <v>10.7</v>
+        <v>7.600000000000001</v>
       </c>
       <c r="C6">
-        <v>12.51</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="D6">
-        <v>15.655</v>
+        <v>12.355</v>
       </c>
       <c r="E6">
-        <v>1004</v>
+        <v>795</v>
       </c>
       <c r="F6">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I6">
         <v>6</v>
       </c>
       <c r="J6">
-        <v>8.33</v>
+        <v>10.36</v>
       </c>
       <c r="K6">
-        <v>14.829</v>
+        <v>10.804</v>
       </c>
       <c r="L6">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="M6">
-        <v>13.51</v>
+        <v>19.74000000000001</v>
       </c>
       <c r="N6">
-        <v>15.875</v>
+        <v>22.585</v>
       </c>
       <c r="O6">
-        <v>916</v>
+        <v>1066</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="R6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S6">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U6">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V6">
         <v>63</v>
       </c>
       <c r="W6">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="X6">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>11.324</v>
@@ -952,37 +973,37 @@
         <v>15</v>
       </c>
       <c r="J7">
-        <v>4.824999999999999</v>
+        <v>7.286</v>
       </c>
       <c r="K7">
         <v>3.16575</v>
       </c>
       <c r="L7">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="M7">
-        <v>12.761</v>
+        <v>34.54</v>
       </c>
       <c r="N7">
-        <v>20.177</v>
+        <v>64.30000000000001</v>
       </c>
       <c r="O7">
-        <v>1933</v>
+        <v>4123</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S7">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="U7">
         <v>406</v>
@@ -991,15 +1012,18 @@
         <v>413</v>
       </c>
       <c r="W7">
-        <v>111</v>
+        <v>418</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>115</v>
+      </c>
+      <c r="Y7">
+        <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>64.09999999999999</v>
@@ -1026,37 +1050,37 @@
         <v>12</v>
       </c>
       <c r="J8">
-        <v>2.6</v>
+        <v>10.1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>35.4</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="M8">
-        <v>30.55000000000001</v>
+        <v>59.42449999999999</v>
       </c>
       <c r="N8">
-        <v>25.7</v>
+        <v>52.4178</v>
       </c>
       <c r="O8">
-        <v>1312</v>
+        <v>2409</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="S8">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="U8">
         <v>130</v>
@@ -1065,15 +1089,18 @@
         <v>135</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="X8">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>50.343</v>
@@ -1100,22 +1127,22 @@
         <v>19</v>
       </c>
       <c r="J9">
-        <v>10.173</v>
+        <v>11.557</v>
       </c>
       <c r="K9">
-        <v>26.9073</v>
+        <v>10.4549</v>
       </c>
       <c r="L9">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="M9">
-        <v>20.731</v>
+        <v>21.51089999999999</v>
       </c>
       <c r="N9">
-        <v>25.64899999999999</v>
+        <v>35.63099999999999</v>
       </c>
       <c r="O9">
-        <v>1151</v>
+        <v>1298</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1127,10 +1154,10 @@
         <v>21</v>
       </c>
       <c r="S9">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="T9">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="U9">
         <v>78</v>
@@ -1139,27 +1166,30 @@
         <v>137</v>
       </c>
       <c r="W9">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="X9">
+        <v>12</v>
+      </c>
+      <c r="Y9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>178.575</v>
       </c>
       <c r="C10">
-        <v>45.60999999999996</v>
+        <v>45.30999999999995</v>
       </c>
       <c r="D10">
-        <v>33.67899999999999</v>
+        <v>33.57900000000001</v>
       </c>
       <c r="E10">
-        <v>1778</v>
+        <v>1769</v>
       </c>
       <c r="F10">
         <v>66</v>
@@ -1174,37 +1204,37 @@
         <v>21</v>
       </c>
       <c r="J10">
-        <v>30.31</v>
+        <v>51.09499999999998</v>
       </c>
       <c r="K10">
-        <v>60.60600000000001</v>
+        <v>70.81399999999999</v>
       </c>
       <c r="L10">
-        <v>379</v>
+        <v>659</v>
       </c>
       <c r="M10">
-        <v>24.9</v>
+        <v>41.28099999999999</v>
       </c>
       <c r="N10">
-        <v>18.959</v>
+        <v>31.551</v>
       </c>
       <c r="O10">
-        <v>1029</v>
+        <v>1683</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="R10">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="S10">
+        <v>93</v>
+      </c>
+      <c r="T10">
         <v>70</v>
-      </c>
-      <c r="T10">
-        <v>35</v>
       </c>
       <c r="U10">
         <v>124</v>
@@ -1213,84 +1243,90 @@
         <v>123</v>
       </c>
       <c r="W10">
+        <v>125</v>
+      </c>
+      <c r="X10">
         <v>54</v>
       </c>
-      <c r="X10">
-        <v>0</v>
+      <c r="Y10">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11">
-        <v>453.597</v>
+        <v>448.007</v>
       </c>
       <c r="C11">
-        <v>914.9345000000001</v>
+        <v>910.2645000000002</v>
       </c>
       <c r="D11">
-        <v>403.2439999999999</v>
+        <v>401.1939999999999</v>
       </c>
       <c r="E11">
-        <v>20586</v>
+        <v>20183</v>
       </c>
       <c r="F11">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I11">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="J11">
-        <v>121.322</v>
+        <v>189.049</v>
       </c>
       <c r="K11">
-        <v>427.8045500000001</v>
+        <v>338.6246500000001</v>
       </c>
       <c r="L11">
-        <v>3011</v>
+        <v>3150</v>
       </c>
       <c r="M11">
-        <v>213.701</v>
+        <v>298.9034</v>
       </c>
       <c r="N11">
-        <v>272.333</v>
+        <v>413.7388</v>
       </c>
       <c r="O11">
-        <v>13299</v>
+        <v>18689</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q11">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="R11">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="S11">
-        <v>633</v>
+        <v>966</v>
       </c>
       <c r="T11">
-        <v>150</v>
+        <v>431</v>
       </c>
       <c r="U11">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="V11">
         <v>1558</v>
       </c>
       <c r="W11">
-        <v>237</v>
+        <v>1506</v>
       </c>
       <c r="X11">
-        <v>36</v>
+        <v>234</v>
+      </c>
+      <c r="Y11">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
